--- a/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 4.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6071B0A2-024B-5F4D-B60D-1854BE199569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D42F7-0897-1341-81F7-6ACBED24D812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{2D41E00E-E4FF-E94C-959E-2FC0089F74CD}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 4.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/new db tables for addresses 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D42F7-0897-1341-81F7-6ACBED24D812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A940291A-E07E-B148-BF3A-D5A4C7EEEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{2D41E00E-E4FF-E94C-959E-2FC0089F74CD}"/>
   </bookViews>
@@ -887,8 +887,8 @@
   <dimension ref="C1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
